--- a/data/pca/factorExposure/factorExposure_2011-08-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.02031409380532555</v>
+        <v>0.01763448415635901</v>
       </c>
       <c r="C2">
-        <v>0.01327881568490185</v>
+        <v>0.006236541792165146</v>
       </c>
       <c r="D2">
-        <v>-0.0402447450926162</v>
+        <v>-0.02862570994634988</v>
       </c>
       <c r="E2">
-        <v>-0.067945865161143</v>
+        <v>-0.03993756354075416</v>
       </c>
       <c r="F2">
-        <v>-0.0002933327858865843</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.0213125952804967</v>
+      </c>
+      <c r="G2">
+        <v>0.0159435216235275</v>
+      </c>
+      <c r="H2">
+        <v>-0.01768827266228109</v>
+      </c>
+      <c r="I2">
+        <v>0.009103936989338117</v>
+      </c>
+      <c r="J2">
+        <v>0.03751421812916313</v>
+      </c>
+      <c r="K2">
+        <v>-0.06456437957432502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.07766235830402514</v>
+        <v>0.09355196462513893</v>
       </c>
       <c r="C4">
-        <v>0.04383715213873388</v>
+        <v>0.05018399879607825</v>
       </c>
       <c r="D4">
-        <v>-0.0530857192603395</v>
+        <v>-0.03011217678148841</v>
       </c>
       <c r="E4">
-        <v>-0.01924064314400971</v>
+        <v>-0.03121034279074691</v>
       </c>
       <c r="F4">
-        <v>0.02435964223082304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.0776395312271783</v>
+      </c>
+      <c r="G4">
+        <v>0.03831282055886243</v>
+      </c>
+      <c r="H4">
+        <v>-0.01622808192028915</v>
+      </c>
+      <c r="I4">
+        <v>-0.07241232924862985</v>
+      </c>
+      <c r="J4">
+        <v>-0.008650726756015503</v>
+      </c>
+      <c r="K4">
+        <v>0.04504114563167647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.124655955683937</v>
+        <v>0.1328231187041287</v>
       </c>
       <c r="C6">
-        <v>0.008350602547915188</v>
+        <v>0.01508611759411744</v>
       </c>
       <c r="D6">
-        <v>-0.05931492469193945</v>
+        <v>-0.06358225347015294</v>
       </c>
       <c r="E6">
-        <v>-0.07267310408890991</v>
+        <v>-0.02041479923155634</v>
       </c>
       <c r="F6">
-        <v>0.04192417661464214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.05220749476810642</v>
+      </c>
+      <c r="G6">
+        <v>0.06700499358494641</v>
+      </c>
+      <c r="H6">
+        <v>0.1579724910422062</v>
+      </c>
+      <c r="I6">
+        <v>-0.1088680547011029</v>
+      </c>
+      <c r="J6">
+        <v>-0.4485121463506009</v>
+      </c>
+      <c r="K6">
+        <v>-0.014044316369137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.072332696921301</v>
+        <v>0.0710964929414515</v>
       </c>
       <c r="C7">
-        <v>0.01546973550492711</v>
+        <v>0.05175849090294873</v>
       </c>
       <c r="D7">
-        <v>-0.06170261784365744</v>
+        <v>-0.04789097243169492</v>
       </c>
       <c r="E7">
-        <v>-0.0591684416619228</v>
+        <v>-0.03327647020125107</v>
       </c>
       <c r="F7">
-        <v>-0.005625328798372162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.04043686070082642</v>
+      </c>
+      <c r="G7">
+        <v>-0.01640906279295242</v>
+      </c>
+      <c r="H7">
+        <v>-0.001938252129566591</v>
+      </c>
+      <c r="I7">
+        <v>-0.02486888282437737</v>
+      </c>
+      <c r="J7">
+        <v>0.07303253560535879</v>
+      </c>
+      <c r="K7">
+        <v>0.07894982465411786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.03595177938510073</v>
+        <v>0.040164050077911</v>
       </c>
       <c r="C8">
-        <v>0.04686770294001213</v>
+        <v>0.02047977778910021</v>
       </c>
       <c r="D8">
-        <v>0.01023480761177083</v>
+        <v>0.009635377487893525</v>
       </c>
       <c r="E8">
-        <v>-0.0587147674202326</v>
+        <v>-0.06744225801384426</v>
       </c>
       <c r="F8">
-        <v>0.03860714828983597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.03207111402683637</v>
+      </c>
+      <c r="G8">
+        <v>0.0616077530308335</v>
+      </c>
+      <c r="H8">
+        <v>0.008634748211388151</v>
+      </c>
+      <c r="I8">
+        <v>-0.1009041382306535</v>
+      </c>
+      <c r="J8">
+        <v>0.009453634296198122</v>
+      </c>
+      <c r="K8">
+        <v>0.03819188503542083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.07776882517097872</v>
+        <v>0.08576686005985013</v>
       </c>
       <c r="C9">
-        <v>0.05448993762131431</v>
+        <v>0.05291240903063327</v>
       </c>
       <c r="D9">
-        <v>-0.04674974751005975</v>
+        <v>-0.02890396180016763</v>
       </c>
       <c r="E9">
-        <v>-0.02255129701552853</v>
+        <v>-0.02224245454786261</v>
       </c>
       <c r="F9">
-        <v>0.01688690321826373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.06140511899926724</v>
+      </c>
+      <c r="G9">
+        <v>0.04638032817481354</v>
+      </c>
+      <c r="H9">
+        <v>-0.01572901222997214</v>
+      </c>
+      <c r="I9">
+        <v>-0.08282145691822865</v>
+      </c>
+      <c r="J9">
+        <v>-0.00207489472965328</v>
+      </c>
+      <c r="K9">
+        <v>0.02527655293708991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.01989893908853954</v>
+        <v>0.07316631445229518</v>
       </c>
       <c r="C10">
-        <v>-0.1590315784558562</v>
+        <v>-0.1931207303519332</v>
       </c>
       <c r="D10">
-        <v>0.005408710072376718</v>
+        <v>-0.007904203022069326</v>
       </c>
       <c r="E10">
-        <v>-0.07509207528190392</v>
+        <v>-0.04915866397466138</v>
       </c>
       <c r="F10">
-        <v>0.04138935465863439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03572169287024412</v>
+      </c>
+      <c r="G10">
+        <v>-0.05449006823975932</v>
+      </c>
+      <c r="H10">
+        <v>0.02613950615916695</v>
+      </c>
+      <c r="I10">
+        <v>0.03280369991147763</v>
+      </c>
+      <c r="J10">
+        <v>0.02204247942731091</v>
+      </c>
+      <c r="K10">
+        <v>-0.008626286006505949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.0711631233716202</v>
+        <v>0.07342180202886577</v>
       </c>
       <c r="C11">
-        <v>0.06302693710046992</v>
+        <v>0.06014964056085051</v>
       </c>
       <c r="D11">
-        <v>-0.0361624749772942</v>
+        <v>-0.02960108507175798</v>
       </c>
       <c r="E11">
-        <v>-0.03277221064840771</v>
+        <v>-0.01864627689939056</v>
       </c>
       <c r="F11">
-        <v>-0.01091674014449561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02463314484922067</v>
+      </c>
+      <c r="G11">
+        <v>0.06673703098540924</v>
+      </c>
+      <c r="H11">
+        <v>-0.02507525294302362</v>
+      </c>
+      <c r="I11">
+        <v>-0.05385909205139589</v>
+      </c>
+      <c r="J11">
+        <v>0.07279364362294978</v>
+      </c>
+      <c r="K11">
+        <v>-0.04240265530129513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.06839162692854527</v>
+        <v>0.07240512891818242</v>
       </c>
       <c r="C12">
-        <v>0.04749673895948588</v>
+        <v>0.05001651263095611</v>
       </c>
       <c r="D12">
-        <v>-0.04072318372589881</v>
+        <v>-0.01952987784061126</v>
       </c>
       <c r="E12">
-        <v>-0.02073647673572147</v>
+        <v>-0.01080723775687941</v>
       </c>
       <c r="F12">
-        <v>-0.002705472935560595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.03478523440917091</v>
+      </c>
+      <c r="G12">
+        <v>0.05500275987187936</v>
+      </c>
+      <c r="H12">
+        <v>-0.004174459219028568</v>
+      </c>
+      <c r="I12">
+        <v>-0.08094512212272671</v>
+      </c>
+      <c r="J12">
+        <v>0.0680169983659815</v>
+      </c>
+      <c r="K12">
+        <v>-0.01143524802487862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.07847740182107549</v>
+        <v>0.068056447054411</v>
       </c>
       <c r="C13">
-        <v>0.02614345893343262</v>
+        <v>0.03429496809584047</v>
       </c>
       <c r="D13">
-        <v>-0.02337383404067431</v>
+        <v>0.01496486286377998</v>
       </c>
       <c r="E13">
-        <v>-0.02278422909284865</v>
+        <v>-0.02415280747832881</v>
       </c>
       <c r="F13">
-        <v>0.01163353756381903</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.03076164345066711</v>
+      </c>
+      <c r="G13">
+        <v>0.02448510971932789</v>
+      </c>
+      <c r="H13">
+        <v>-0.01100941860145594</v>
+      </c>
+      <c r="I13">
+        <v>-0.06275014850483344</v>
+      </c>
+      <c r="J13">
+        <v>0.03261243901793667</v>
+      </c>
+      <c r="K13">
+        <v>0.09752119348244298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.03441133051470053</v>
+        <v>0.04441512456779174</v>
       </c>
       <c r="C14">
-        <v>-0.009050059626666326</v>
+        <v>0.007975849237705777</v>
       </c>
       <c r="D14">
-        <v>-0.03218935646210548</v>
+        <v>-0.02906954089929686</v>
       </c>
       <c r="E14">
-        <v>-0.00943197587316363</v>
+        <v>-0.004310252308281956</v>
       </c>
       <c r="F14">
-        <v>0.01780089111501892</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03696018000570613</v>
+      </c>
+      <c r="G14">
+        <v>0.03100918644213773</v>
+      </c>
+      <c r="H14">
+        <v>-0.05013486748403661</v>
+      </c>
+      <c r="I14">
+        <v>-0.05370473827108663</v>
+      </c>
+      <c r="J14">
+        <v>-0.01005820510460501</v>
+      </c>
+      <c r="K14">
+        <v>0.04672242303821869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.05780290350858093</v>
+        <v>0.04473455636286511</v>
       </c>
       <c r="C15">
-        <v>0.01401557160861694</v>
+        <v>0.01652370646969659</v>
       </c>
       <c r="D15">
-        <v>-0.01724694209199434</v>
+        <v>0.0110842116897659</v>
       </c>
       <c r="E15">
-        <v>-0.01086894892096667</v>
+        <v>0.003238017986931377</v>
       </c>
       <c r="F15">
-        <v>0.03425601101026433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.03340727001833223</v>
+      </c>
+      <c r="G15">
+        <v>0.01373107780093323</v>
+      </c>
+      <c r="H15">
+        <v>-0.01013065954627863</v>
+      </c>
+      <c r="I15">
+        <v>-0.02898670473851557</v>
+      </c>
+      <c r="J15">
+        <v>-0.03247688047099026</v>
+      </c>
+      <c r="K15">
+        <v>0.07086806067482589</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.06144623035452305</v>
+        <v>0.07408798064916043</v>
       </c>
       <c r="C16">
-        <v>0.06252824296622257</v>
+        <v>0.05984413201947098</v>
       </c>
       <c r="D16">
-        <v>-0.03908668832894941</v>
+        <v>-0.02648200811008447</v>
       </c>
       <c r="E16">
-        <v>-0.02133947854194496</v>
+        <v>-0.01267024930326557</v>
       </c>
       <c r="F16">
-        <v>0.0100827844967032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.04030729560931754</v>
+      </c>
+      <c r="G16">
+        <v>0.04577448257176375</v>
+      </c>
+      <c r="H16">
+        <v>-0.02477107980967451</v>
+      </c>
+      <c r="I16">
+        <v>-0.04986649009665094</v>
+      </c>
+      <c r="J16">
+        <v>0.05111382227585414</v>
+      </c>
+      <c r="K16">
+        <v>-0.02143424261865087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.06497050907064898</v>
+        <v>0.06004078515851933</v>
       </c>
       <c r="C20">
-        <v>0.04693364381660785</v>
+        <v>0.03591972537624496</v>
       </c>
       <c r="D20">
-        <v>-0.01835232678274396</v>
+        <v>-0.01633213998266066</v>
       </c>
       <c r="E20">
-        <v>-0.02876141937347784</v>
+        <v>-0.01928669310369393</v>
       </c>
       <c r="F20">
-        <v>0.0126250884575102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01132102551713891</v>
+      </c>
+      <c r="G20">
+        <v>0.0484544086760391</v>
+      </c>
+      <c r="H20">
+        <v>-0.0378158830771844</v>
+      </c>
+      <c r="I20">
+        <v>-0.1150140957537878</v>
+      </c>
+      <c r="J20">
+        <v>0.03740218290591633</v>
+      </c>
+      <c r="K20">
+        <v>0.04756084347177174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.03963119003735952</v>
+        <v>0.02988626184975731</v>
       </c>
       <c r="C21">
-        <v>0.01836921453572596</v>
+        <v>0.02391938477814951</v>
       </c>
       <c r="D21">
-        <v>0.02105813633651152</v>
+        <v>0.02742020922543102</v>
       </c>
       <c r="E21">
-        <v>-0.01800911239153104</v>
+        <v>-0.0130091079533875</v>
       </c>
       <c r="F21">
-        <v>0.06109669909748974</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01486735918398385</v>
+      </c>
+      <c r="G21">
+        <v>0.008795024392447037</v>
+      </c>
+      <c r="H21">
+        <v>0.0580856060630579</v>
+      </c>
+      <c r="I21">
+        <v>-0.05776626658584702</v>
+      </c>
+      <c r="J21">
+        <v>-0.04880223832280402</v>
+      </c>
+      <c r="K21">
+        <v>0.05717053492170839</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.1200510750169281</v>
+        <v>0.09104463158798298</v>
       </c>
       <c r="C22">
-        <v>0.1153195865935214</v>
+        <v>0.08422193662393196</v>
       </c>
       <c r="D22">
-        <v>0.02690235106862034</v>
+        <v>0.3950099205427287</v>
       </c>
       <c r="E22">
-        <v>0.003713044271307863</v>
+        <v>-0.1045881567710848</v>
       </c>
       <c r="F22">
-        <v>0.3822590247827044</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.4018408408810928</v>
+      </c>
+      <c r="G22">
+        <v>-0.2852541021603719</v>
+      </c>
+      <c r="H22">
+        <v>0.05920398347144707</v>
+      </c>
+      <c r="I22">
+        <v>0.1907755314292204</v>
+      </c>
+      <c r="J22">
+        <v>-0.0358007596182214</v>
+      </c>
+      <c r="K22">
+        <v>-0.03913997989644209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1210630640677308</v>
+        <v>0.09199679738129435</v>
       </c>
       <c r="C23">
-        <v>0.1145888027210686</v>
+        <v>0.08453137911913455</v>
       </c>
       <c r="D23">
-        <v>0.02492700198669712</v>
+        <v>0.3952775985758183</v>
       </c>
       <c r="E23">
-        <v>0.00275653760313696</v>
+        <v>-0.1057008564045723</v>
       </c>
       <c r="F23">
-        <v>0.3846296833876185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.4064668237673985</v>
+      </c>
+      <c r="G23">
+        <v>-0.2802835915355978</v>
+      </c>
+      <c r="H23">
+        <v>0.05775271728283028</v>
+      </c>
+      <c r="I23">
+        <v>0.1913682971237445</v>
+      </c>
+      <c r="J23">
+        <v>-0.04164472641048406</v>
+      </c>
+      <c r="K23">
+        <v>-0.04048528843687031</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08252260567149523</v>
+        <v>0.08311511714480944</v>
       </c>
       <c r="C24">
-        <v>0.05938779115017991</v>
+        <v>0.05841249910872526</v>
       </c>
       <c r="D24">
-        <v>-0.03554766284743384</v>
+        <v>-0.01693452161809121</v>
       </c>
       <c r="E24">
-        <v>-0.03546942691648174</v>
+        <v>-0.02319476993155168</v>
       </c>
       <c r="F24">
-        <v>0.01963200722837262</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.04388755197620327</v>
+      </c>
+      <c r="G24">
+        <v>0.06345356879537538</v>
+      </c>
+      <c r="H24">
+        <v>-0.005858635523047094</v>
+      </c>
+      <c r="I24">
+        <v>-0.06632425518170684</v>
+      </c>
+      <c r="J24">
+        <v>0.05060073618260593</v>
+      </c>
+      <c r="K24">
+        <v>-0.02778983385462452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.07814212019977894</v>
+        <v>0.07808360536732514</v>
       </c>
       <c r="C25">
-        <v>0.05008407472549216</v>
+        <v>0.04534573505948596</v>
       </c>
       <c r="D25">
-        <v>-0.04915821698303622</v>
+        <v>-0.03008644704033964</v>
       </c>
       <c r="E25">
-        <v>-0.04495707033029447</v>
+        <v>-0.01876535569222312</v>
       </c>
       <c r="F25">
-        <v>0.02720108867177525</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04817889416204554</v>
+      </c>
+      <c r="G25">
+        <v>0.05800108080563171</v>
+      </c>
+      <c r="H25">
+        <v>-0.02211182210858567</v>
+      </c>
+      <c r="I25">
+        <v>-0.0837762857701416</v>
+      </c>
+      <c r="J25">
+        <v>0.05757497805067082</v>
+      </c>
+      <c r="K25">
+        <v>-0.03969127075550664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05276359158470502</v>
+        <v>0.04616034608954262</v>
       </c>
       <c r="C26">
-        <v>0.0132841374903769</v>
+        <v>0.02472203771051021</v>
       </c>
       <c r="D26">
-        <v>-0.004146173824257656</v>
+        <v>0.01460458615612034</v>
       </c>
       <c r="E26">
-        <v>-0.03544252180523093</v>
+        <v>-0.008546321435840139</v>
       </c>
       <c r="F26">
-        <v>-0.01722565585193352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01706548701618852</v>
+      </c>
+      <c r="G26">
+        <v>0.02144736073762148</v>
+      </c>
+      <c r="H26">
+        <v>-0.02453155648407049</v>
+      </c>
+      <c r="I26">
+        <v>-0.02649328934321322</v>
+      </c>
+      <c r="J26">
+        <v>-0.0148808143101497</v>
+      </c>
+      <c r="K26">
+        <v>0.1260093404922525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.0518767577210116</v>
+        <v>0.09087740062035235</v>
       </c>
       <c r="C28">
-        <v>-0.2962049533184539</v>
+        <v>-0.2941671850329367</v>
       </c>
       <c r="D28">
-        <v>0.01250218259014624</v>
+        <v>0.01493153866402386</v>
       </c>
       <c r="E28">
-        <v>-0.07935751406453675</v>
+        <v>-0.03517886291092017</v>
       </c>
       <c r="F28">
-        <v>-0.001390607297695543</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.0100744309866985</v>
+      </c>
+      <c r="G28">
+        <v>0.008023633865840922</v>
+      </c>
+      <c r="H28">
+        <v>0.04163716680155602</v>
+      </c>
+      <c r="I28">
+        <v>0.02174962888574199</v>
+      </c>
+      <c r="J28">
+        <v>-0.01300755307839158</v>
+      </c>
+      <c r="K28">
+        <v>0.05567456153892313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05643276585697983</v>
+        <v>0.05362409381942036</v>
       </c>
       <c r="C29">
-        <v>-0.005392943241121959</v>
+        <v>0.01015116358881667</v>
       </c>
       <c r="D29">
-        <v>-0.02928389818587058</v>
+        <v>-0.01552187740705967</v>
       </c>
       <c r="E29">
-        <v>-0.0223620570229463</v>
+        <v>-0.02118612843502438</v>
       </c>
       <c r="F29">
-        <v>0.0367990876948699</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03741107390875834</v>
+      </c>
+      <c r="G29">
+        <v>0.03025832848034923</v>
+      </c>
+      <c r="H29">
+        <v>-0.05902368905140078</v>
+      </c>
+      <c r="I29">
+        <v>-0.03311681655714871</v>
+      </c>
+      <c r="J29">
+        <v>-0.01046654067288696</v>
+      </c>
+      <c r="K29">
+        <v>0.04126853267075341</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1511905011596706</v>
+        <v>0.1288208898688714</v>
       </c>
       <c r="C30">
-        <v>0.05989504418514587</v>
+        <v>0.05760651093061351</v>
       </c>
       <c r="D30">
-        <v>-0.0722122943954142</v>
+        <v>-0.008591306142506892</v>
       </c>
       <c r="E30">
-        <v>-0.06318480226595508</v>
+        <v>-0.0611645188900024</v>
       </c>
       <c r="F30">
-        <v>0.05770895517146845</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1160667555514483</v>
+      </c>
+      <c r="G30">
+        <v>0.08282062768680795</v>
+      </c>
+      <c r="H30">
+        <v>0.07667904684690881</v>
+      </c>
+      <c r="I30">
+        <v>-0.2243369923733561</v>
+      </c>
+      <c r="J30">
+        <v>0.1633324621569266</v>
+      </c>
+      <c r="K30">
+        <v>0.2497380676745666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.06060766476684529</v>
+        <v>0.04767637272892388</v>
       </c>
       <c r="C31">
-        <v>0.01798165592386161</v>
+        <v>0.03994647532430479</v>
       </c>
       <c r="D31">
-        <v>-0.02893201249050121</v>
+        <v>0.0003144037390130771</v>
       </c>
       <c r="E31">
-        <v>-0.0009947619188321727</v>
+        <v>0.005849640093875784</v>
       </c>
       <c r="F31">
-        <v>-0.004117578249765984</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02047232079006529</v>
+      </c>
+      <c r="G31">
+        <v>0.000778592726274419</v>
+      </c>
+      <c r="H31">
+        <v>-0.06024243410016357</v>
+      </c>
+      <c r="I31">
+        <v>-0.03973654212058994</v>
+      </c>
+      <c r="J31">
+        <v>-0.0129306893088812</v>
+      </c>
+      <c r="K31">
+        <v>0.02185860063445817</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.04350824725244868</v>
+        <v>0.04884177889710766</v>
       </c>
       <c r="C32">
-        <v>0.006202535674348047</v>
+        <v>-0.007096038375290508</v>
       </c>
       <c r="D32">
-        <v>0.0006540570407048646</v>
+        <v>0.03534479470102762</v>
       </c>
       <c r="E32">
-        <v>0.009912515847748311</v>
+        <v>-0.008492401023459805</v>
       </c>
       <c r="F32">
-        <v>0.05154077647604606</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.05615086054623224</v>
+      </c>
+      <c r="G32">
+        <v>-0.004950486532531884</v>
+      </c>
+      <c r="H32">
+        <v>0.002714873305254478</v>
+      </c>
+      <c r="I32">
+        <v>0.01204654918069967</v>
+      </c>
+      <c r="J32">
+        <v>0.02184467728160609</v>
+      </c>
+      <c r="K32">
+        <v>0.132756357595222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1017923722543771</v>
+        <v>0.1058378532930506</v>
       </c>
       <c r="C33">
-        <v>0.02640800537835878</v>
+        <v>0.04623284637810613</v>
       </c>
       <c r="D33">
-        <v>-0.0391293377803752</v>
+        <v>-0.007112462456247983</v>
       </c>
       <c r="E33">
-        <v>-0.009836519298243298</v>
+        <v>0.0199152220884352</v>
       </c>
       <c r="F33">
-        <v>-0.01850087632779426</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.03501000206645849</v>
+      </c>
+      <c r="G33">
+        <v>0.02800219499172117</v>
+      </c>
+      <c r="H33">
+        <v>-0.04136665211680976</v>
+      </c>
+      <c r="I33">
+        <v>-0.06731078479429951</v>
+      </c>
+      <c r="J33">
+        <v>0.009014647398321453</v>
+      </c>
+      <c r="K33">
+        <v>0.02641894281440826</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06332407242065467</v>
+        <v>0.06960508343226293</v>
       </c>
       <c r="C34">
-        <v>0.06425617614999074</v>
+        <v>0.04978647592151036</v>
       </c>
       <c r="D34">
-        <v>-0.03057387856925069</v>
+        <v>-0.01929289448703542</v>
       </c>
       <c r="E34">
-        <v>-0.01990592188164693</v>
+        <v>-0.009270738358040011</v>
       </c>
       <c r="F34">
-        <v>0.02604622255155869</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03226116195933174</v>
+      </c>
+      <c r="G34">
+        <v>0.05094375267068176</v>
+      </c>
+      <c r="H34">
+        <v>-0.03113207443057869</v>
+      </c>
+      <c r="I34">
+        <v>-0.06098560087818781</v>
+      </c>
+      <c r="J34">
+        <v>0.03851718614764047</v>
+      </c>
+      <c r="K34">
+        <v>-0.04396526822702704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04065196380355911</v>
+        <v>0.03450065121644261</v>
       </c>
       <c r="C35">
-        <v>0.008426875219865258</v>
+        <v>0.0205225969625481</v>
       </c>
       <c r="D35">
-        <v>-0.01762790331731056</v>
+        <v>-0.00785246883870507</v>
       </c>
       <c r="E35">
-        <v>-0.002012578867083612</v>
+        <v>0.008416231765321545</v>
       </c>
       <c r="F35">
-        <v>0.009269571569946494</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.01727568137646045</v>
+      </c>
+      <c r="G35">
+        <v>-0.008810464337001308</v>
+      </c>
+      <c r="H35">
+        <v>-0.02809242302276969</v>
+      </c>
+      <c r="I35">
+        <v>-0.0623703970812737</v>
+      </c>
+      <c r="J35">
+        <v>0.02660583443924669</v>
+      </c>
+      <c r="K35">
+        <v>0.02523157280231831</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03847147172592754</v>
+        <v>0.03413434640441378</v>
       </c>
       <c r="C36">
-        <v>0.01238054829620508</v>
+        <v>0.01277024838208959</v>
       </c>
       <c r="D36">
-        <v>-0.01611078812337001</v>
+        <v>0.002230746958093996</v>
       </c>
       <c r="E36">
-        <v>-0.03240939120246241</v>
+        <v>-0.02058461558323203</v>
       </c>
       <c r="F36">
-        <v>0.01421746815989459</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.03269894296920967</v>
+      </c>
+      <c r="G36">
+        <v>0.02661580723214677</v>
+      </c>
+      <c r="H36">
+        <v>-0.0185224379177562</v>
+      </c>
+      <c r="I36">
+        <v>-0.0637902234965393</v>
+      </c>
+      <c r="J36">
+        <v>0.01173421628903646</v>
+      </c>
+      <c r="K36">
+        <v>0.04689859873826766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.06856309389754087</v>
+        <v>0.04970009790698623</v>
       </c>
       <c r="C38">
-        <v>0.02079828135333</v>
+        <v>0.04806853080650324</v>
       </c>
       <c r="D38">
-        <v>0.01782798552663064</v>
+        <v>0.04095687870355245</v>
       </c>
       <c r="E38">
-        <v>0.0175923530770635</v>
+        <v>-0.009483432234037949</v>
       </c>
       <c r="F38">
-        <v>0.05425456164631635</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.007661490247258136</v>
+      </c>
+      <c r="G38">
+        <v>-0.009344241608144181</v>
+      </c>
+      <c r="H38">
+        <v>0.01399181697024653</v>
+      </c>
+      <c r="I38">
+        <v>0.1086710153656375</v>
+      </c>
+      <c r="J38">
+        <v>0.002649730054608493</v>
+      </c>
+      <c r="K38">
+        <v>0.05313661247246956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.09335580568898891</v>
+        <v>0.09854042624714861</v>
       </c>
       <c r="C39">
-        <v>0.04662342132228363</v>
+        <v>0.05388601243523976</v>
       </c>
       <c r="D39">
-        <v>-0.04048948128209995</v>
+        <v>-0.0190103741245213</v>
       </c>
       <c r="E39">
-        <v>-0.004297658720996939</v>
+        <v>-0.01457943605715625</v>
       </c>
       <c r="F39">
-        <v>0.02314007549395974</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04355677392967713</v>
+      </c>
+      <c r="G39">
+        <v>0.04877989812159408</v>
+      </c>
+      <c r="H39">
+        <v>-0.00884969585020391</v>
+      </c>
+      <c r="I39">
+        <v>-0.07030449291814729</v>
+      </c>
+      <c r="J39">
+        <v>0.1694276334025369</v>
+      </c>
+      <c r="K39">
+        <v>0.003358058632746787</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.07123098353544523</v>
+        <v>0.04508551592463109</v>
       </c>
       <c r="C40">
-        <v>0.01102720243641602</v>
+        <v>0.03931856109980275</v>
       </c>
       <c r="D40">
-        <v>-0.0187491781485851</v>
+        <v>0.05694273809426201</v>
       </c>
       <c r="E40">
-        <v>-0.01221269165505224</v>
+        <v>0.0005676883647831537</v>
       </c>
       <c r="F40">
-        <v>0.100428371209491</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.04300508380912433</v>
+      </c>
+      <c r="G40">
+        <v>0.09168135438233305</v>
+      </c>
+      <c r="H40">
+        <v>0.1000952642193301</v>
+      </c>
+      <c r="I40">
+        <v>-0.07893043073708185</v>
+      </c>
+      <c r="J40">
+        <v>0.2488122639347403</v>
+      </c>
+      <c r="K40">
+        <v>0.08130539841239243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.06023217817778084</v>
+        <v>0.0473310025442223</v>
       </c>
       <c r="C41">
-        <v>0.02389676143084596</v>
+        <v>0.02888649411120508</v>
       </c>
       <c r="D41">
-        <v>-0.00725290830265147</v>
+        <v>-0.00918787319297735</v>
       </c>
       <c r="E41">
-        <v>0.008532857690552413</v>
+        <v>0.004752332921483451</v>
       </c>
       <c r="F41">
-        <v>0.01018776341636317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.02097235824972778</v>
+      </c>
+      <c r="G41">
+        <v>0.02351995768871228</v>
+      </c>
+      <c r="H41">
+        <v>-0.02635289856909677</v>
+      </c>
+      <c r="I41">
+        <v>0.001176207510852712</v>
+      </c>
+      <c r="J41">
+        <v>0.02931771841568346</v>
+      </c>
+      <c r="K41">
+        <v>0.03985669669546976</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.06417420242194015</v>
+        <v>0.06103287352671925</v>
       </c>
       <c r="C43">
-        <v>0.01444371839559578</v>
+        <v>0.03574464386946918</v>
       </c>
       <c r="D43">
-        <v>-0.01455498917107689</v>
+        <v>-0.004961587943881323</v>
       </c>
       <c r="E43">
-        <v>-0.01780709413040576</v>
+        <v>-0.02039539879188979</v>
       </c>
       <c r="F43">
-        <v>-0.003513622613344783</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.008755599220762427</v>
+      </c>
+      <c r="G43">
+        <v>0.01144566842248037</v>
+      </c>
+      <c r="H43">
+        <v>-0.05450238906648603</v>
+      </c>
+      <c r="I43">
+        <v>-0.004491709648078565</v>
+      </c>
+      <c r="J43">
+        <v>0.01914457767947826</v>
+      </c>
+      <c r="K43">
+        <v>0.01232507627796898</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.09081815053888705</v>
+        <v>0.09312808460374003</v>
       </c>
       <c r="C44">
-        <v>0.04862525316846721</v>
+        <v>0.05418661644321009</v>
       </c>
       <c r="D44">
-        <v>-0.01073166686859436</v>
+        <v>0.01858320082829337</v>
       </c>
       <c r="E44">
-        <v>-0.0873302882834613</v>
+        <v>-0.1022510117487295</v>
       </c>
       <c r="F44">
-        <v>0.1107174143399577</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.08503404022165245</v>
+      </c>
+      <c r="G44">
+        <v>0.08223785014213982</v>
+      </c>
+      <c r="H44">
+        <v>-0.04669972645078131</v>
+      </c>
+      <c r="I44">
+        <v>-0.1087835851099935</v>
+      </c>
+      <c r="J44">
+        <v>0.09747640761592116</v>
+      </c>
+      <c r="K44">
+        <v>0.0111389186662779</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.03245012818067412</v>
+        <v>0.0470799594822355</v>
       </c>
       <c r="C46">
-        <v>0.0326978581726824</v>
+        <v>0.03137681818403969</v>
       </c>
       <c r="D46">
-        <v>-0.01456068172733827</v>
+        <v>-0.008225208937206022</v>
       </c>
       <c r="E46">
-        <v>-0.01683477520872383</v>
+        <v>-0.02607831353907769</v>
       </c>
       <c r="F46">
-        <v>0.04586546951004638</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04340632822614982</v>
+      </c>
+      <c r="G46">
+        <v>0.006972373183527999</v>
+      </c>
+      <c r="H46">
+        <v>-0.02653690694420379</v>
+      </c>
+      <c r="I46">
+        <v>-0.03421440651989686</v>
+      </c>
+      <c r="J46">
+        <v>-0.02178148966760011</v>
+      </c>
+      <c r="K46">
+        <v>0.0439750450881049</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.03919817263664258</v>
+        <v>0.04729079985802005</v>
       </c>
       <c r="C47">
-        <v>-0.005841674207082961</v>
+        <v>0.01037126866914932</v>
       </c>
       <c r="D47">
-        <v>-0.009218327554077105</v>
+        <v>0.01252879854295119</v>
       </c>
       <c r="E47">
-        <v>-0.01574283822985279</v>
+        <v>-0.0020022269704555</v>
       </c>
       <c r="F47">
-        <v>0.06660206510183347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.04095099650823901</v>
+      </c>
+      <c r="G47">
+        <v>-0.007333596747258905</v>
+      </c>
+      <c r="H47">
+        <v>-0.02305027573774929</v>
+      </c>
+      <c r="I47">
+        <v>-0.03143440427116105</v>
+      </c>
+      <c r="J47">
+        <v>-0.02158352135545319</v>
+      </c>
+      <c r="K47">
+        <v>0.002304662897412371</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.05130365377569907</v>
+        <v>0.04440897119072658</v>
       </c>
       <c r="C48">
-        <v>0.01616719853083423</v>
+        <v>0.01528274449804278</v>
       </c>
       <c r="D48">
-        <v>-0.03087773890876907</v>
+        <v>0.007677918483304798</v>
       </c>
       <c r="E48">
-        <v>-0.02431365451530613</v>
+        <v>-0.003439634965213428</v>
       </c>
       <c r="F48">
-        <v>0.03384291875830423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.04278397097761979</v>
+      </c>
+      <c r="G48">
+        <v>0.006135678422502798</v>
+      </c>
+      <c r="H48">
+        <v>0.006584324522017308</v>
+      </c>
+      <c r="I48">
+        <v>-0.05787091594280722</v>
+      </c>
+      <c r="J48">
+        <v>0.002901269021097989</v>
+      </c>
+      <c r="K48">
+        <v>0.05847497221422357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.1477647289254754</v>
+        <v>0.205102137945031</v>
       </c>
       <c r="C49">
-        <v>0.01800447641900483</v>
+        <v>0.02279647864864069</v>
       </c>
       <c r="D49">
-        <v>-0.08449669378958523</v>
+        <v>-0.1780553357210865</v>
       </c>
       <c r="E49">
-        <v>-0.02813601994085752</v>
+        <v>0.01961956308035684</v>
       </c>
       <c r="F49">
-        <v>-0.1455397694113158</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.06679310052141718</v>
+      </c>
+      <c r="G49">
+        <v>-0.1613326453549316</v>
+      </c>
+      <c r="H49">
+        <v>0.1874898765256197</v>
+      </c>
+      <c r="I49">
+        <v>0.09816397438426261</v>
+      </c>
+      <c r="J49">
+        <v>0.09462598854130677</v>
+      </c>
+      <c r="K49">
+        <v>-0.2149239516087404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.06642078976288594</v>
+        <v>0.05583580017438195</v>
       </c>
       <c r="C50">
-        <v>0.02269183404998714</v>
+        <v>0.03706824903196502</v>
       </c>
       <c r="D50">
-        <v>-0.03635275104438513</v>
+        <v>-0.007036573106646614</v>
       </c>
       <c r="E50">
-        <v>-0.001694799964885228</v>
+        <v>0.01143840951169412</v>
       </c>
       <c r="F50">
-        <v>0.01661857291174947</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.03711512594570593</v>
+      </c>
+      <c r="G50">
+        <v>0.01773877007489139</v>
+      </c>
+      <c r="H50">
+        <v>-0.05803492477134344</v>
+      </c>
+      <c r="I50">
+        <v>-0.03469321096476276</v>
+      </c>
+      <c r="J50">
+        <v>-0.03167967675351767</v>
+      </c>
+      <c r="K50">
+        <v>0.03843694573861687</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03878166017611106</v>
+        <v>0.04107326705794222</v>
       </c>
       <c r="C51">
-        <v>0.0002681192035434941</v>
+        <v>0.00209563971257799</v>
       </c>
       <c r="D51">
-        <v>0.01074822092528301</v>
+        <v>0.009097060710582862</v>
       </c>
       <c r="E51">
-        <v>0.0007304958271055114</v>
+        <v>-0.02221322510451267</v>
       </c>
       <c r="F51">
-        <v>0.007046597842652095</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.02969073190923976</v>
+      </c>
+      <c r="G51">
+        <v>-0.01506094639528963</v>
+      </c>
+      <c r="H51">
+        <v>0.02124955261766187</v>
+      </c>
+      <c r="I51">
+        <v>0.01003040198520908</v>
+      </c>
+      <c r="J51">
+        <v>0.04090502335908273</v>
+      </c>
+      <c r="K51">
+        <v>-0.06969955683905255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1522685281909204</v>
+        <v>0.1552125668047866</v>
       </c>
       <c r="C53">
-        <v>-0.03029266265350421</v>
+        <v>0.01348246560956065</v>
       </c>
       <c r="D53">
-        <v>-0.07077554186200952</v>
+        <v>-0.06920218402093861</v>
       </c>
       <c r="E53">
-        <v>-0.001978884331211911</v>
+        <v>0.0187728221421014</v>
       </c>
       <c r="F53">
-        <v>-0.03176223957520113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.004698834338334497</v>
+      </c>
+      <c r="G53">
+        <v>-0.01745818951064051</v>
+      </c>
+      <c r="H53">
+        <v>-0.2319235529559609</v>
+      </c>
+      <c r="I53">
+        <v>0.07838967336842829</v>
+      </c>
+      <c r="J53">
+        <v>-0.04789061336694293</v>
+      </c>
+      <c r="K53">
+        <v>-0.05819897862944899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.06451215961282754</v>
+        <v>0.06352446890676609</v>
       </c>
       <c r="C54">
-        <v>0.01637290463386925</v>
+        <v>0.01187996408487736</v>
       </c>
       <c r="D54">
-        <v>0.0003712317278177688</v>
+        <v>0.02031702942730219</v>
       </c>
       <c r="E54">
-        <v>-0.0392091371294444</v>
+        <v>-0.03572416822243146</v>
       </c>
       <c r="F54">
-        <v>0.06378320233905331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.06094562717714103</v>
+      </c>
+      <c r="G54">
+        <v>0.06529227742570333</v>
+      </c>
+      <c r="H54">
+        <v>-0.02182696312696031</v>
+      </c>
+      <c r="I54">
+        <v>-0.1066651217673539</v>
+      </c>
+      <c r="J54">
+        <v>-0.00885403693605581</v>
+      </c>
+      <c r="K54">
+        <v>0.07276325293775797</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09450765259897802</v>
+        <v>0.0951694810195307</v>
       </c>
       <c r="C55">
-        <v>-0.003619309288773256</v>
+        <v>0.02542157696977726</v>
       </c>
       <c r="D55">
-        <v>-0.05174905791584274</v>
+        <v>-0.0472307757937256</v>
       </c>
       <c r="E55">
-        <v>-0.02093022905299561</v>
+        <v>-0.006946323899530451</v>
       </c>
       <c r="F55">
-        <v>0.02120289973118284</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01032353103588454</v>
+      </c>
+      <c r="G55">
+        <v>0.03356389786009389</v>
+      </c>
+      <c r="H55">
+        <v>-0.1782386154087028</v>
+      </c>
+      <c r="I55">
+        <v>0.008435439335761075</v>
+      </c>
+      <c r="J55">
+        <v>-0.02462477583698748</v>
+      </c>
+      <c r="K55">
+        <v>-0.04618547610036156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1524306131868117</v>
+        <v>0.1516504427882106</v>
       </c>
       <c r="C56">
-        <v>-0.02970846691859964</v>
+        <v>0.03236336583221045</v>
       </c>
       <c r="D56">
-        <v>-0.08625033679955674</v>
+        <v>-0.06866344431433832</v>
       </c>
       <c r="E56">
-        <v>-0.04211081902603236</v>
+        <v>-0.002087921006876656</v>
       </c>
       <c r="F56">
-        <v>-0.04442697267037799</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.01249795200992722</v>
+      </c>
+      <c r="G56">
+        <v>0.001997862971665594</v>
+      </c>
+      <c r="H56">
+        <v>-0.2320705384125041</v>
+      </c>
+      <c r="I56">
+        <v>0.09458750816578186</v>
+      </c>
+      <c r="J56">
+        <v>-0.02900942262595634</v>
+      </c>
+      <c r="K56">
+        <v>-0.01857598842906201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2692,1355 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.1164191095536103</v>
+        <v>0.07468424787024402</v>
       </c>
       <c r="C58">
-        <v>0.06274771527717825</v>
+        <v>0.05230222936428385</v>
       </c>
       <c r="D58">
-        <v>0.1369354876999665</v>
+        <v>0.1745958618303192</v>
       </c>
       <c r="E58">
-        <v>-0.1112016242660462</v>
+        <v>-0.08511347691580649</v>
       </c>
       <c r="F58">
-        <v>0.2031062812605754</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.03890254835834331</v>
+      </c>
+      <c r="G58">
+        <v>-0.09419520615987004</v>
+      </c>
+      <c r="H58">
+        <v>0.1530849474610905</v>
+      </c>
+      <c r="I58">
+        <v>-0.5593799187422837</v>
+      </c>
+      <c r="J58">
+        <v>0.0721077576971858</v>
+      </c>
+      <c r="K58">
+        <v>-0.1429307789719818</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1394341928867759</v>
+        <v>0.1749373218924619</v>
       </c>
       <c r="C59">
-        <v>-0.4411962075266296</v>
+        <v>-0.3532627545738853</v>
       </c>
       <c r="D59">
-        <v>0.04196693580347542</v>
+        <v>0.02966514399801316</v>
       </c>
       <c r="E59">
-        <v>-0.08681437190137715</v>
+        <v>-0.03618937514398232</v>
       </c>
       <c r="F59">
-        <v>0.06203583183671469</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.03252443809386903</v>
+      </c>
+      <c r="G59">
+        <v>0.02699663631662662</v>
+      </c>
+      <c r="H59">
+        <v>-0.0335901108160909</v>
+      </c>
+      <c r="I59">
+        <v>0.06047452373329407</v>
+      </c>
+      <c r="J59">
+        <v>0.04970679647190394</v>
+      </c>
+      <c r="K59">
+        <v>-0.00154845998603062</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2208275801846025</v>
+        <v>0.2462421213804211</v>
       </c>
       <c r="C60">
-        <v>-0.01773363475227991</v>
+        <v>0.04222955831876454</v>
       </c>
       <c r="D60">
-        <v>-0.08142219453726519</v>
+        <v>-0.1308173102652957</v>
       </c>
       <c r="E60">
-        <v>-0.05039384480719972</v>
+        <v>-0.02111620857139403</v>
       </c>
       <c r="F60">
-        <v>-0.0322351093210298</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.04608340760805092</v>
+      </c>
+      <c r="G60">
+        <v>-0.02627851948203734</v>
+      </c>
+      <c r="H60">
+        <v>0.1029124370395685</v>
+      </c>
+      <c r="I60">
+        <v>0.09713682511169769</v>
+      </c>
+      <c r="J60">
+        <v>-0.09798067694440567</v>
+      </c>
+      <c r="K60">
+        <v>-0.1681907112715207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.07936959242391518</v>
+        <v>0.08818662280348966</v>
       </c>
       <c r="C61">
-        <v>0.02268092887314924</v>
+        <v>0.03780496365588965</v>
       </c>
       <c r="D61">
-        <v>-0.03060741726925236</v>
+        <v>-0.0198026128733274</v>
       </c>
       <c r="E61">
-        <v>-0.008423888060875878</v>
+        <v>-0.02176837672038683</v>
       </c>
       <c r="F61">
-        <v>0.008776115798281157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03116393228458114</v>
+      </c>
+      <c r="G61">
+        <v>0.05983926462794602</v>
+      </c>
+      <c r="H61">
+        <v>-0.05898638276562841</v>
+      </c>
+      <c r="I61">
+        <v>-0.03121296002189427</v>
+      </c>
+      <c r="J61">
+        <v>0.09089580353509341</v>
+      </c>
+      <c r="K61">
+        <v>0.002817921362312101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.149334550236122</v>
+        <v>0.1464073591496458</v>
       </c>
       <c r="C62">
-        <v>-0.01961718228405844</v>
+        <v>0.03853877689476407</v>
       </c>
       <c r="D62">
-        <v>-0.04322046149412814</v>
+        <v>-0.05296968401389963</v>
       </c>
       <c r="E62">
-        <v>0.01905939110234216</v>
+        <v>0.0430083139060914</v>
       </c>
       <c r="F62">
-        <v>-0.0657728149302424</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.0222780991998835</v>
+      </c>
+      <c r="G62">
+        <v>0.0263363045374001</v>
+      </c>
+      <c r="H62">
+        <v>-0.227621865644566</v>
+      </c>
+      <c r="I62">
+        <v>0.08342925431595564</v>
+      </c>
+      <c r="J62">
+        <v>-0.08841336004209793</v>
+      </c>
+      <c r="K62">
+        <v>-0.01830009005484218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.06031016557040295</v>
+        <v>0.05325135765703968</v>
       </c>
       <c r="C63">
-        <v>0.02815860859217367</v>
+        <v>0.02301511443606077</v>
       </c>
       <c r="D63">
-        <v>-0.01806854564231484</v>
+        <v>-0.001289069154521332</v>
       </c>
       <c r="E63">
-        <v>-0.01345398629916518</v>
+        <v>0.003983021899324516</v>
       </c>
       <c r="F63">
-        <v>0.004008479839151491</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.02869487213277879</v>
+      </c>
+      <c r="G63">
+        <v>0.04437869718491703</v>
+      </c>
+      <c r="H63">
+        <v>-0.02169936619860474</v>
+      </c>
+      <c r="I63">
+        <v>-0.05194494291759773</v>
+      </c>
+      <c r="J63">
+        <v>-0.02554274548625085</v>
+      </c>
+      <c r="K63">
+        <v>0.04119421393141115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.09768795842774769</v>
+        <v>0.1042975138154071</v>
       </c>
       <c r="C64">
-        <v>-0.006539267888312937</v>
+        <v>0.01615599644908181</v>
       </c>
       <c r="D64">
-        <v>-0.06063651609690471</v>
+        <v>-0.04512901246794185</v>
       </c>
       <c r="E64">
-        <v>-0.03292187511389717</v>
+        <v>-0.03026469502998316</v>
       </c>
       <c r="F64">
-        <v>0.04853226496201885</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.07075661506401219</v>
+      </c>
+      <c r="G64">
+        <v>0.04549080568653189</v>
+      </c>
+      <c r="H64">
+        <v>0.01966078770303286</v>
+      </c>
+      <c r="I64">
+        <v>-0.03220363120329677</v>
+      </c>
+      <c r="J64">
+        <v>0.05578045267240476</v>
+      </c>
+      <c r="K64">
+        <v>0.02643203568925878</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1257558826485987</v>
+        <v>0.1339624531062539</v>
       </c>
       <c r="C65">
-        <v>0.03123141310232865</v>
+        <v>0.01814773157638182</v>
       </c>
       <c r="D65">
-        <v>-0.05643606226567949</v>
+        <v>-0.06345417734103691</v>
       </c>
       <c r="E65">
-        <v>-0.05085096009141057</v>
+        <v>0.002713304311808011</v>
       </c>
       <c r="F65">
-        <v>0.08479667260074591</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.06248662057535304</v>
+      </c>
+      <c r="G65">
+        <v>0.0973994838565876</v>
+      </c>
+      <c r="H65">
+        <v>0.1650671083807453</v>
+      </c>
+      <c r="I65">
+        <v>-0.2237239094775751</v>
+      </c>
+      <c r="J65">
+        <v>-0.641198237815307</v>
+      </c>
+      <c r="K65">
+        <v>-0.06817653957107679</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1582965306068893</v>
+        <v>0.143867042763321</v>
       </c>
       <c r="C66">
-        <v>0.07991285749967034</v>
+        <v>0.09898767636980869</v>
       </c>
       <c r="D66">
-        <v>-0.06355315436567859</v>
+        <v>-0.0280533847303714</v>
       </c>
       <c r="E66">
-        <v>-0.01666082815032114</v>
+        <v>-0.00645055057199746</v>
       </c>
       <c r="F66">
-        <v>-0.02247080009166147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.04174992701995391</v>
+      </c>
+      <c r="G66">
+        <v>0.08656159170377548</v>
+      </c>
+      <c r="H66">
+        <v>-0.02654313439098251</v>
+      </c>
+      <c r="I66">
+        <v>-0.0541994150395098</v>
+      </c>
+      <c r="J66">
+        <v>0.256207545633934</v>
+      </c>
+      <c r="K66">
+        <v>0.05229995669256459</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.09880365324710987</v>
+        <v>0.09660378937166772</v>
       </c>
       <c r="C67">
-        <v>0.0230125253042376</v>
+        <v>0.05207944030089078</v>
       </c>
       <c r="D67">
-        <v>0.02233054958083412</v>
+        <v>0.01814433641699922</v>
       </c>
       <c r="E67">
-        <v>-0.003831981941586005</v>
+        <v>-0.03753182128844855</v>
       </c>
       <c r="F67">
-        <v>0.01309833094215869</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.02867165921683837</v>
+      </c>
+      <c r="G67">
+        <v>0.01786301834127996</v>
+      </c>
+      <c r="H67">
+        <v>0.01724568063385804</v>
+      </c>
+      <c r="I67">
+        <v>0.1389337622363689</v>
+      </c>
+      <c r="J67">
+        <v>0.0386033621948789</v>
+      </c>
+      <c r="K67">
+        <v>0.02626434945896961</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.0479946555492154</v>
+        <v>0.08178075770444869</v>
       </c>
       <c r="C68">
-        <v>-0.2578541173637123</v>
+        <v>-0.2772088783402304</v>
       </c>
       <c r="D68">
-        <v>0.02609074999930929</v>
+        <v>0.03573297113923736</v>
       </c>
       <c r="E68">
-        <v>-0.04271911953037901</v>
+        <v>-0.02646734849845115</v>
       </c>
       <c r="F68">
-        <v>0.03934113626276922</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.03005733327227653</v>
+      </c>
+      <c r="G68">
+        <v>-0.0156833780634365</v>
+      </c>
+      <c r="H68">
+        <v>-0.02312819879594234</v>
+      </c>
+      <c r="I68">
+        <v>-0.03858759613543804</v>
+      </c>
+      <c r="J68">
+        <v>-0.04511684802320245</v>
+      </c>
+      <c r="K68">
+        <v>0.01997536197804899</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.06754214228318275</v>
+        <v>0.05616815535142817</v>
       </c>
       <c r="C69">
-        <v>0.01222013344838769</v>
+        <v>0.01772733599034546</v>
       </c>
       <c r="D69">
-        <v>9.677010518849139e-05</v>
+        <v>0.01544853164724011</v>
       </c>
       <c r="E69">
-        <v>-0.01777816274485473</v>
+        <v>0.004260331692285381</v>
       </c>
       <c r="F69">
-        <v>0.01031714880702224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.0007558081993903333</v>
+      </c>
+      <c r="G69">
+        <v>0.01907828592639411</v>
+      </c>
+      <c r="H69">
+        <v>-0.03438361604391659</v>
+      </c>
+      <c r="I69">
+        <v>-0.008523727773891061</v>
+      </c>
+      <c r="J69">
+        <v>0.00872979594623202</v>
+      </c>
+      <c r="K69">
+        <v>-0.0009324436213624212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.01523493585382921</v>
+        <v>0.04098176842784377</v>
       </c>
       <c r="C70">
-        <v>-0.01330641035470469</v>
+        <v>0.003460845178677845</v>
       </c>
       <c r="D70">
-        <v>0.005158209306294565</v>
+        <v>-0.01871826291155995</v>
       </c>
       <c r="E70">
-        <v>0.01417200651775446</v>
+        <v>0.00235679932897098</v>
       </c>
       <c r="F70">
-        <v>-0.01224762240764714</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>-0.05431635255620212</v>
+      </c>
+      <c r="G70">
+        <v>0.01115816821311373</v>
+      </c>
+      <c r="H70">
+        <v>0.02445267703130509</v>
+      </c>
+      <c r="I70">
+        <v>0.03370648035786331</v>
+      </c>
+      <c r="J70">
+        <v>0.02800933531696037</v>
+      </c>
+      <c r="K70">
+        <v>0.1119857773721517</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.045342204139518</v>
+        <v>0.09199408383181425</v>
       </c>
       <c r="C71">
-        <v>-0.2842548493324393</v>
+        <v>-0.2967682807871861</v>
       </c>
       <c r="D71">
-        <v>0.02860102776164667</v>
+        <v>0.02341205821589625</v>
       </c>
       <c r="E71">
-        <v>-0.07454633742235763</v>
+        <v>-0.04533334770039929</v>
       </c>
       <c r="F71">
-        <v>0.0314285939197525</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.03203795947261792</v>
+      </c>
+      <c r="G71">
+        <v>-0.001158497768737308</v>
+      </c>
+      <c r="H71">
+        <v>-0.01533654002751132</v>
+      </c>
+      <c r="I71">
+        <v>-0.01849435252097179</v>
+      </c>
+      <c r="J71">
+        <v>-0.008676138175236657</v>
+      </c>
+      <c r="K71">
+        <v>0.004260511606606208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1448617577303692</v>
+        <v>0.1357477751223256</v>
       </c>
       <c r="C72">
-        <v>-0.04122809657654571</v>
+        <v>-0.001552457631829504</v>
       </c>
       <c r="D72">
-        <v>-0.0364834686874323</v>
+        <v>0.01499967381112035</v>
       </c>
       <c r="E72">
-        <v>0.2372824229820529</v>
+        <v>0.1730249567933496</v>
       </c>
       <c r="F72">
-        <v>0.03254341693800834</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.002963629865260868</v>
+      </c>
+      <c r="G72">
+        <v>0.1234865625914891</v>
+      </c>
+      <c r="H72">
+        <v>-0.01907515688170204</v>
+      </c>
+      <c r="I72">
+        <v>0.009448683809246192</v>
+      </c>
+      <c r="J72">
+        <v>-0.1020262475173174</v>
+      </c>
+      <c r="K72">
+        <v>-0.1295566253661111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2487185066517168</v>
+        <v>0.2430346622796728</v>
       </c>
       <c r="C73">
-        <v>0.04893700575647419</v>
+        <v>0.1010663321211386</v>
       </c>
       <c r="D73">
-        <v>-0.09733273176871785</v>
+        <v>-0.2118378092268055</v>
       </c>
       <c r="E73">
-        <v>-0.09006009161262399</v>
+        <v>-0.05223366156537358</v>
       </c>
       <c r="F73">
-        <v>-0.2014781951971578</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.2070515055227596</v>
+      </c>
+      <c r="G73">
+        <v>-0.2539333152055217</v>
+      </c>
+      <c r="H73">
+        <v>0.2982428863693956</v>
+      </c>
+      <c r="I73">
+        <v>0.08893922956536424</v>
+      </c>
+      <c r="J73">
+        <v>0.1893473913015621</v>
+      </c>
+      <c r="K73">
+        <v>-0.4673027257022643</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.08699545466483337</v>
+        <v>0.09274322072469957</v>
       </c>
       <c r="C74">
-        <v>-0.01460979897841357</v>
+        <v>0.03273556749241308</v>
       </c>
       <c r="D74">
-        <v>-0.05961740397440504</v>
+        <v>-0.04401423054598454</v>
       </c>
       <c r="E74">
-        <v>-0.006237744407378336</v>
+        <v>0.01487731153600247</v>
       </c>
       <c r="F74">
-        <v>0.004972017764655428</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01777853311482581</v>
+      </c>
+      <c r="G74">
+        <v>-0.02701160283479552</v>
+      </c>
+      <c r="H74">
+        <v>-0.1435992132785525</v>
+      </c>
+      <c r="I74">
+        <v>0.0161857189318589</v>
+      </c>
+      <c r="J74">
+        <v>0.01350346080205913</v>
+      </c>
+      <c r="K74">
+        <v>-0.05814379775650495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.122238806977478</v>
+        <v>0.1051135958794693</v>
       </c>
       <c r="C75">
-        <v>-0.001791054121541281</v>
+        <v>0.03072576820555675</v>
       </c>
       <c r="D75">
-        <v>-0.002061513367118859</v>
+        <v>0.01180939469569065</v>
       </c>
       <c r="E75">
-        <v>-0.02248691879413659</v>
+        <v>0.003908516871304375</v>
       </c>
       <c r="F75">
-        <v>-0.02710349757105259</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.03391735282102526</v>
+      </c>
+      <c r="G75">
+        <v>-0.01277337579108059</v>
+      </c>
+      <c r="H75">
+        <v>-0.125364482486693</v>
+      </c>
+      <c r="I75">
+        <v>0.03341169922488118</v>
+      </c>
+      <c r="J75">
+        <v>-0.04321087143319825</v>
+      </c>
+      <c r="K75">
+        <v>-0.007768403963264804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1393953729662965</v>
+        <v>0.1253323398696791</v>
       </c>
       <c r="C76">
-        <v>-0.006869730772474888</v>
+        <v>0.05062606176865558</v>
       </c>
       <c r="D76">
-        <v>-0.07147790293343161</v>
+        <v>-0.06019675721140166</v>
       </c>
       <c r="E76">
-        <v>-0.02115614164098389</v>
+        <v>-0.00564440620080797</v>
       </c>
       <c r="F76">
-        <v>0.008629545924732428</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.0182112648452914</v>
+      </c>
+      <c r="G76">
+        <v>-0.01131223545226142</v>
+      </c>
+      <c r="H76">
+        <v>-0.2556493631672</v>
+      </c>
+      <c r="I76">
+        <v>0.07116697659618638</v>
+      </c>
+      <c r="J76">
+        <v>-0.04511845423159483</v>
+      </c>
+      <c r="K76">
+        <v>-0.01781951560700238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.1295302776359308</v>
+        <v>0.08980991947964945</v>
       </c>
       <c r="C77">
-        <v>0.03804393725895235</v>
+        <v>0.03208925173611781</v>
       </c>
       <c r="D77">
-        <v>0.09671588530150375</v>
+        <v>0.1566308541385772</v>
       </c>
       <c r="E77">
-        <v>-0.02229870558311463</v>
+        <v>-0.1137058572348604</v>
       </c>
       <c r="F77">
-        <v>0.3707162991019063</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.006238767428204375</v>
+      </c>
+      <c r="G77">
+        <v>0.6921016312132561</v>
+      </c>
+      <c r="H77">
+        <v>0.2973791242737461</v>
+      </c>
+      <c r="I77">
+        <v>0.4051978596954167</v>
+      </c>
+      <c r="J77">
+        <v>0.03679816927755291</v>
+      </c>
+      <c r="K77">
+        <v>-0.0366777573773763</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.1275826905266236</v>
+        <v>0.1646878937644101</v>
       </c>
       <c r="C78">
-        <v>0.07210010371274186</v>
+        <v>0.07920572458588263</v>
       </c>
       <c r="D78">
-        <v>-0.04243041074257359</v>
+        <v>0.02336664405537785</v>
       </c>
       <c r="E78">
-        <v>-0.01183323041859308</v>
+        <v>-0.08331893622771262</v>
       </c>
       <c r="F78">
-        <v>0.09038209955712477</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.1487955878664843</v>
+      </c>
+      <c r="G78">
+        <v>0.03173494346747142</v>
+      </c>
+      <c r="H78">
+        <v>0.07849959426655018</v>
+      </c>
+      <c r="I78">
+        <v>-0.03408983794808001</v>
+      </c>
+      <c r="J78">
+        <v>-0.002336232396315703</v>
+      </c>
+      <c r="K78">
+        <v>-0.1317369237300574</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1492288880512272</v>
+        <v>0.143509209763109</v>
       </c>
       <c r="C79">
-        <v>0.01764537802133797</v>
+        <v>0.04342320189502654</v>
       </c>
       <c r="D79">
-        <v>-0.0661503421046826</v>
+        <v>-0.04436784168191707</v>
       </c>
       <c r="E79">
-        <v>-0.0041113467873328</v>
+        <v>0.005032672094072908</v>
       </c>
       <c r="F79">
-        <v>-0.0513704121976456</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.0133202197431413</v>
+      </c>
+      <c r="G79">
+        <v>0.02825562439931323</v>
+      </c>
+      <c r="H79">
+        <v>-0.1851234851750549</v>
+      </c>
+      <c r="I79">
+        <v>0.06962657198675268</v>
+      </c>
+      <c r="J79">
+        <v>-0.06674735789170241</v>
+      </c>
+      <c r="K79">
+        <v>-0.02353883751877722</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03858313047965702</v>
+        <v>0.04477900378061889</v>
       </c>
       <c r="C80">
-        <v>0.02318133702905096</v>
+        <v>0.008897329651294642</v>
       </c>
       <c r="D80">
-        <v>-0.01469415200107301</v>
+        <v>-0.05463009524746034</v>
       </c>
       <c r="E80">
-        <v>-0.00448303717514374</v>
+        <v>0.009676436336212825</v>
       </c>
       <c r="F80">
-        <v>-0.0001155117060694723</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02815532547320196</v>
+      </c>
+      <c r="G80">
+        <v>0.002368220598863503</v>
+      </c>
+      <c r="H80">
+        <v>0.02929574666218327</v>
+      </c>
+      <c r="I80">
+        <v>-0.08006532154798351</v>
+      </c>
+      <c r="J80">
+        <v>0.03537487703381755</v>
+      </c>
+      <c r="K80">
+        <v>0.01807359072479908</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1347796834168463</v>
+        <v>0.1319780803957871</v>
       </c>
       <c r="C81">
-        <v>-0.003182563426625917</v>
+        <v>0.01818098998605035</v>
       </c>
       <c r="D81">
-        <v>-0.05368748908283326</v>
+        <v>-0.03638422531063867</v>
       </c>
       <c r="E81">
-        <v>-0.03055959067383095</v>
+        <v>0.007158886541024399</v>
       </c>
       <c r="F81">
-        <v>-0.04021759282959051</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.01183473571315584</v>
+      </c>
+      <c r="G81">
+        <v>-0.002211843551391174</v>
+      </c>
+      <c r="H81">
+        <v>-0.1441996130633405</v>
+      </c>
+      <c r="I81">
+        <v>0.03303847189160306</v>
+      </c>
+      <c r="J81">
+        <v>0.02819582880540888</v>
+      </c>
+      <c r="K81">
+        <v>0.01966225391169596</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1234340873178634</v>
+        <v>0.1266134168906207</v>
       </c>
       <c r="C82">
-        <v>0.01675660549733535</v>
+        <v>0.02930659808985151</v>
       </c>
       <c r="D82">
-        <v>-0.03722651347707173</v>
+        <v>-0.04322552462208244</v>
       </c>
       <c r="E82">
-        <v>-0.03916113039766559</v>
+        <v>0.006561671659907431</v>
       </c>
       <c r="F82">
-        <v>-0.05024791508559939</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.01191761823932705</v>
+      </c>
+      <c r="G82">
+        <v>-0.01544085841337574</v>
+      </c>
+      <c r="H82">
+        <v>-0.2761006432968017</v>
+      </c>
+      <c r="I82">
+        <v>0.07362409074351522</v>
+      </c>
+      <c r="J82">
+        <v>0.01786302110640929</v>
+      </c>
+      <c r="K82">
+        <v>0.02281872255604591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.05414091670103495</v>
+        <v>0.07614342494402165</v>
       </c>
       <c r="C83">
-        <v>0.01884885413937495</v>
+        <v>0.03370855433355431</v>
       </c>
       <c r="D83">
-        <v>0.07479330371535999</v>
+        <v>0.02167738502027488</v>
       </c>
       <c r="E83">
-        <v>-0.01468534655021783</v>
+        <v>-0.02579685099066812</v>
       </c>
       <c r="F83">
-        <v>-0.09161848675854092</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.08874790386164855</v>
+      </c>
+      <c r="G83">
+        <v>-0.03360098551528926</v>
+      </c>
+      <c r="H83">
+        <v>0.04906596357016319</v>
+      </c>
+      <c r="I83">
+        <v>-0.07830498965694119</v>
+      </c>
+      <c r="J83">
+        <v>0.03735338953165512</v>
+      </c>
+      <c r="K83">
+        <v>0.04600339124717791</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.05370011345579988</v>
+        <v>0.03358783653615358</v>
       </c>
       <c r="C84">
-        <v>0.01298321668253171</v>
+        <v>0.0448531821180997</v>
       </c>
       <c r="D84">
-        <v>-0.05198554657579154</v>
+        <v>0.005225362087224052</v>
       </c>
       <c r="E84">
-        <v>0.02153941539228258</v>
+        <v>0.03996530027959468</v>
       </c>
       <c r="F84">
-        <v>0.00270241101360881</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.06038442434832855</v>
+      </c>
+      <c r="G84">
+        <v>-0.041774298184112</v>
+      </c>
+      <c r="H84">
+        <v>-0.01914969590493725</v>
+      </c>
+      <c r="I84">
+        <v>-0.09524039429412125</v>
+      </c>
+      <c r="J84">
+        <v>0.0422342485705775</v>
+      </c>
+      <c r="K84">
+        <v>0.1036619480590459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1104122018588991</v>
+        <v>0.11876429766742</v>
       </c>
       <c r="C85">
-        <v>0.03382076489990603</v>
+        <v>0.03728755271921606</v>
       </c>
       <c r="D85">
-        <v>-0.02856724865350147</v>
+        <v>-0.03036291512514413</v>
       </c>
       <c r="E85">
-        <v>-0.05747506604016413</v>
+        <v>-0.03530414613653518</v>
       </c>
       <c r="F85">
-        <v>0.008863336399705516</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.01056338053548189</v>
+      </c>
+      <c r="G85">
+        <v>0.02015591353940152</v>
+      </c>
+      <c r="H85">
+        <v>-0.1926267397940557</v>
+      </c>
+      <c r="I85">
+        <v>0.03703498153752064</v>
+      </c>
+      <c r="J85">
+        <v>-0.06407533051365996</v>
+      </c>
+      <c r="K85">
+        <v>-0.0261659643870196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.07815616818070571</v>
+        <v>0.07059087494215328</v>
       </c>
       <c r="C86">
-        <v>0.06864155686206783</v>
+        <v>0.03523135202688377</v>
       </c>
       <c r="D86">
-        <v>-0.02809523156459501</v>
+        <v>0.01167866812409278</v>
       </c>
       <c r="E86">
-        <v>-0.01004376155342351</v>
+        <v>-0.01599293017127517</v>
       </c>
       <c r="F86">
-        <v>0.03001941493147199</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03309856114923621</v>
+      </c>
+      <c r="G86">
+        <v>-0.008364524386763042</v>
+      </c>
+      <c r="H86">
+        <v>0.02671839184443399</v>
+      </c>
+      <c r="I86">
+        <v>0.009389302339364665</v>
+      </c>
+      <c r="J86">
+        <v>-0.00857811789928483</v>
+      </c>
+      <c r="K86">
+        <v>0.04106652919233079</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1288769123056687</v>
+        <v>0.1283947649756825</v>
       </c>
       <c r="C87">
-        <v>0.06451020398843346</v>
+        <v>0.07169142308324455</v>
       </c>
       <c r="D87">
-        <v>-0.06204455867620059</v>
+        <v>-0.001286455538627789</v>
       </c>
       <c r="E87">
-        <v>-0.04010434763131187</v>
+        <v>-0.01936872953998308</v>
       </c>
       <c r="F87">
-        <v>0.1854776676138074</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1008231468238108</v>
+      </c>
+      <c r="G87">
+        <v>0.1957922464759799</v>
+      </c>
+      <c r="H87">
+        <v>0.1042869175046363</v>
+      </c>
+      <c r="I87">
+        <v>0.05280494678234297</v>
+      </c>
+      <c r="J87">
+        <v>0.02587892144260602</v>
+      </c>
+      <c r="K87">
+        <v>0.03417873439039751</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.0582334887297805</v>
+        <v>0.06525213016332918</v>
       </c>
       <c r="C88">
-        <v>0.0228145922892739</v>
+        <v>0.03824636905282316</v>
       </c>
       <c r="D88">
-        <v>-0.02350545629325654</v>
+        <v>-0.03676323589773018</v>
       </c>
       <c r="E88">
-        <v>-0.01022993533210621</v>
+        <v>-0.007481922783448494</v>
       </c>
       <c r="F88">
-        <v>0.005802593925823704</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.003315237050782402</v>
+      </c>
+      <c r="G88">
+        <v>0.01828986166306117</v>
+      </c>
+      <c r="H88">
+        <v>-0.0196153401005149</v>
+      </c>
+      <c r="I88">
+        <v>-0.03245572189445062</v>
+      </c>
+      <c r="J88">
+        <v>0.03990420083135367</v>
+      </c>
+      <c r="K88">
+        <v>0.02360322761400228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.08406328947065862</v>
+        <v>0.1521235610413844</v>
       </c>
       <c r="C89">
-        <v>-0.3274618686539599</v>
+        <v>-0.3737918524845606</v>
       </c>
       <c r="D89">
-        <v>0.03176229216401123</v>
+        <v>0.01348046656819426</v>
       </c>
       <c r="E89">
-        <v>-0.1121339132220044</v>
+        <v>-0.08979454667325583</v>
       </c>
       <c r="F89">
-        <v>0.05401189023390095</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01803975313132737</v>
+      </c>
+      <c r="G89">
+        <v>-0.02817282103505665</v>
+      </c>
+      <c r="H89">
+        <v>0.006197740381514646</v>
+      </c>
+      <c r="I89">
+        <v>-0.06295323082242486</v>
+      </c>
+      <c r="J89">
+        <v>0.09170979278900433</v>
+      </c>
+      <c r="K89">
+        <v>-0.01144533583187909</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.06845037154029734</v>
+        <v>0.1050600052946493</v>
       </c>
       <c r="C90">
-        <v>-0.2887396684554137</v>
+        <v>-0.2807965060271721</v>
       </c>
       <c r="D90">
-        <v>0.05503312607663543</v>
+        <v>0.03454938875528134</v>
       </c>
       <c r="E90">
-        <v>-0.05032722544515639</v>
+        <v>-0.03970126002808535</v>
       </c>
       <c r="F90">
-        <v>0.06823052627205353</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.002521087900244805</v>
+      </c>
+      <c r="G90">
+        <v>0.03202267021099749</v>
+      </c>
+      <c r="H90">
+        <v>0.03605421787764265</v>
+      </c>
+      <c r="I90">
+        <v>-0.05110449141228873</v>
+      </c>
+      <c r="J90">
+        <v>0.0550752008021462</v>
+      </c>
+      <c r="K90">
+        <v>-0.01700860762930003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.1024279166556765</v>
+        <v>0.08748290496173627</v>
       </c>
       <c r="C91">
-        <v>0.01069885124231583</v>
+        <v>0.03847187081852893</v>
       </c>
       <c r="D91">
-        <v>-0.03263141705121614</v>
+        <v>-0.006569848456018693</v>
       </c>
       <c r="E91">
-        <v>-0.01462901451293581</v>
+        <v>0.001045131989400084</v>
       </c>
       <c r="F91">
-        <v>-0.008823363715523322</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.003549016884813145</v>
+      </c>
+      <c r="G91">
+        <v>-0.02891183659104044</v>
+      </c>
+      <c r="H91">
+        <v>-0.08510726829351455</v>
+      </c>
+      <c r="I91">
+        <v>0.02225461062574825</v>
+      </c>
+      <c r="J91">
+        <v>-0.02427812484162062</v>
+      </c>
+      <c r="K91">
+        <v>-0.01444488640926214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.05326468328615146</v>
+        <v>0.1069933711951473</v>
       </c>
       <c r="C92">
-        <v>-0.3334739215510577</v>
+        <v>-0.3371385287408485</v>
       </c>
       <c r="D92">
-        <v>0.01228087680838781</v>
+        <v>0.01550852698797888</v>
       </c>
       <c r="E92">
-        <v>-0.08305786557793894</v>
+        <v>-0.04842300857960122</v>
       </c>
       <c r="F92">
-        <v>0.01555321711982834</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.03801812561522398</v>
+      </c>
+      <c r="G92">
+        <v>-0.02225575057240873</v>
+      </c>
+      <c r="H92">
+        <v>-0.0196029558673111</v>
+      </c>
+      <c r="I92">
+        <v>-0.01823620331644737</v>
+      </c>
+      <c r="J92">
+        <v>0.02539217763461893</v>
+      </c>
+      <c r="K92">
+        <v>0.007340900816286332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.05356438357863672</v>
+        <v>0.1095018773638908</v>
       </c>
       <c r="C93">
-        <v>-0.2930950967678087</v>
+        <v>-0.3097200243611763</v>
       </c>
       <c r="D93">
-        <v>0.02318404203270507</v>
+        <v>0.004370204128579762</v>
       </c>
       <c r="E93">
-        <v>-0.05087572045077697</v>
+        <v>-0.02502206625918239</v>
       </c>
       <c r="F93">
-        <v>0.03822962380438612</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.006599379061396594</v>
+      </c>
+      <c r="G93">
+        <v>-0.0006982640683464641</v>
+      </c>
+      <c r="H93">
+        <v>0.01311046155611711</v>
+      </c>
+      <c r="I93">
+        <v>-0.001705327902329275</v>
+      </c>
+      <c r="J93">
+        <v>0.0004946607587807988</v>
+      </c>
+      <c r="K93">
+        <v>0.03222282000578247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.1269573939034329</v>
+        <v>0.1206020053413969</v>
       </c>
       <c r="C94">
-        <v>0.05774566657664294</v>
+        <v>0.0608983191593977</v>
       </c>
       <c r="D94">
-        <v>-0.03088260982485372</v>
+        <v>-0.009516368255838877</v>
       </c>
       <c r="E94">
-        <v>-0.03409528277390789</v>
+        <v>-0.02480740876495991</v>
       </c>
       <c r="F94">
-        <v>-0.0198514575996685</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.005469169886005827</v>
+      </c>
+      <c r="G94">
+        <v>-0.05608153250318727</v>
+      </c>
+      <c r="H94">
+        <v>-0.126998953724346</v>
+      </c>
+      <c r="I94">
+        <v>0.0119129757773591</v>
+      </c>
+      <c r="J94">
+        <v>-0.02205705860314173</v>
+      </c>
+      <c r="K94">
+        <v>-0.01707319034699747</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1215820513161483</v>
+        <v>0.1343960145969176</v>
       </c>
       <c r="C95">
-        <v>0.08640467197427781</v>
+        <v>0.07243452494989688</v>
       </c>
       <c r="D95">
-        <v>-0.07412571681560136</v>
+        <v>-0.03611607437096685</v>
       </c>
       <c r="E95">
-        <v>-0.0790414339184886</v>
+        <v>-0.051859644143305</v>
       </c>
       <c r="F95">
-        <v>-0.05163681847839791</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.06031576348050686</v>
+      </c>
+      <c r="G95">
+        <v>0.02415306389650493</v>
+      </c>
+      <c r="H95">
+        <v>0.1160362713869601</v>
+      </c>
+      <c r="I95">
+        <v>-0.08056995824675911</v>
+      </c>
+      <c r="J95">
+        <v>0.03112735299000841</v>
+      </c>
+      <c r="K95">
+        <v>0.01690484620294954</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.2504086719184023</v>
+        <v>0.1887572165899595</v>
       </c>
       <c r="C97">
-        <v>-0.1426451518493812</v>
+        <v>-0.03945058667171379</v>
       </c>
       <c r="D97">
-        <v>-0.03915245520413935</v>
+        <v>0.2588576918721448</v>
       </c>
       <c r="E97">
-        <v>0.8888059914064564</v>
+        <v>0.9015857541153687</v>
       </c>
       <c r="F97">
-        <v>0.00497412730280958</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.01776640737078751</v>
+      </c>
+      <c r="G97">
+        <v>0.03889836826641283</v>
+      </c>
+      <c r="H97">
+        <v>0.06740211433721521</v>
+      </c>
+      <c r="I97">
+        <v>-0.04795881185486851</v>
+      </c>
+      <c r="J97">
+        <v>0.06956075197476642</v>
+      </c>
+      <c r="K97">
+        <v>-0.03988279259489096</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.2902517980012896</v>
+        <v>0.2852445101741172</v>
       </c>
       <c r="C98">
-        <v>0.04449437477902643</v>
+        <v>0.09755958417001757</v>
       </c>
       <c r="D98">
-        <v>0.001262199582309613</v>
+        <v>-0.1201039719983431</v>
       </c>
       <c r="E98">
-        <v>-0.09799873392049888</v>
+        <v>0.03281747468734893</v>
       </c>
       <c r="F98">
-        <v>-0.5422688945376972</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2730886664831003</v>
+      </c>
+      <c r="G98">
+        <v>-0.299076426379234</v>
+      </c>
+      <c r="H98">
+        <v>0.2870675669908103</v>
+      </c>
+      <c r="I98">
+        <v>0.2035041103190376</v>
+      </c>
+      <c r="J98">
+        <v>-0.07828713147795373</v>
+      </c>
+      <c r="K98">
+        <v>0.6413293873155141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.2451041797643148</v>
+        <v>0.1529478023860827</v>
       </c>
       <c r="C99">
-        <v>0.1166202287836956</v>
+        <v>0.09092607546252864</v>
       </c>
       <c r="D99">
-        <v>0.9079390140459136</v>
+        <v>0.6227761097323096</v>
       </c>
       <c r="E99">
-        <v>0.006470484010612206</v>
+        <v>-0.1961067429256501</v>
       </c>
       <c r="F99">
-        <v>-0.1078362962069014</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.6313888391219636</v>
+      </c>
+      <c r="G99">
+        <v>0.03397452860838633</v>
+      </c>
+      <c r="H99">
+        <v>-0.1452011731608949</v>
+      </c>
+      <c r="I99">
+        <v>-0.07260870606880182</v>
+      </c>
+      <c r="J99">
+        <v>-0.06600912956762353</v>
+      </c>
+      <c r="K99">
+        <v>-0.05020566749090941</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4197,60 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05647008057389608</v>
+        <v>0.05358537148371112</v>
       </c>
       <c r="C101">
-        <v>-0.004962232596510819</v>
+        <v>0.01031252549633961</v>
       </c>
       <c r="D101">
-        <v>-0.02934508860975241</v>
+        <v>-0.01603481061721966</v>
       </c>
       <c r="E101">
-        <v>-0.02322602096973406</v>
+        <v>-0.02202605236773011</v>
       </c>
       <c r="F101">
-        <v>0.03489119371960146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03724450376125942</v>
+      </c>
+      <c r="G101">
+        <v>0.02921799371616554</v>
+      </c>
+      <c r="H101">
+        <v>-0.05820776819428473</v>
+      </c>
+      <c r="I101">
+        <v>-0.03218836893598494</v>
+      </c>
+      <c r="J101">
+        <v>-0.008576964982370315</v>
+      </c>
+      <c r="K101">
+        <v>0.03882531944553389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4267,25 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
